--- a/HybridFrameWork/TestData/Testdata.xlsx
+++ b/HybridFrameWork/TestData/Testdata.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="14900" windowHeight="3470"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Log" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -345,7 +346,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
